--- a/New folder/model/access/check Access Classes.xlsx
+++ b/New folder/model/access/check Access Classes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.ahmadian\Documents\odnoos documentation\New folder\model\access\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.ahmadian\Documents\odnoos documentation\odnoos-documentation\New folder\model\access\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
   <si>
     <t>method</t>
   </si>
@@ -56,9 +56,6 @@
     <t>get_user_profile</t>
   </si>
   <si>
-    <t>get_user_roles</t>
-  </si>
-  <si>
     <t>register_user</t>
   </si>
   <si>
@@ -102,13 +99,175 @@
   </si>
   <si>
     <t>set_role</t>
+  </si>
+  <si>
+    <t>checkId</t>
+  </si>
+  <si>
+    <t>delete_user_group</t>
+  </si>
+  <si>
+    <t>set_user_group</t>
+  </si>
+  <si>
+    <t>delete_role_group</t>
+  </si>
+  <si>
+    <t>delete_region</t>
+  </si>
+  <si>
+    <t>edit_region</t>
+  </si>
+  <si>
+    <t>get_region_by_id</t>
+  </si>
+  <si>
+    <t>get_region_by_name</t>
+  </si>
+  <si>
+    <t>set_region</t>
+  </si>
+  <si>
+    <t>delete_city</t>
+  </si>
+  <si>
+    <t>edit_city</t>
+  </si>
+  <si>
+    <t>get_state_By_Id</t>
+  </si>
+  <si>
+    <t>get_state_By_Name</t>
+  </si>
+  <si>
+    <t>delete_state</t>
+  </si>
+  <si>
+    <t>set_state</t>
+  </si>
+  <si>
+    <t>delete_group</t>
+  </si>
+  <si>
+    <t>set_group</t>
+  </si>
+  <si>
+    <t>delete_role</t>
+  </si>
+  <si>
+    <t>get_role_action</t>
+  </si>
+  <si>
+    <t>set_role_action</t>
+  </si>
+  <si>
+    <t>delete_action</t>
+  </si>
+  <si>
+    <t>edit_action</t>
+  </si>
+  <si>
+    <t>get_action</t>
+  </si>
+  <si>
+    <t>set_action</t>
+  </si>
+  <si>
+    <t>get_role</t>
+  </si>
+  <si>
+    <t>edit_user_profile</t>
+  </si>
+  <si>
+    <t>get_user_group</t>
+  </si>
+  <si>
+    <t>get_user_role</t>
+  </si>
+  <si>
+    <t>check_user_lost_control_password</t>
+  </si>
+  <si>
+    <t>check_username_password_valid</t>
+  </si>
+  <si>
+    <t>check_username_exists</t>
+  </si>
+  <si>
+    <t>get_actions_by_userid</t>
+  </si>
+  <si>
+    <t>get_users</t>
+  </si>
+  <si>
+    <t>درست است (باید ویو یوزر اصلاح شود)</t>
+  </si>
+  <si>
+    <t>edit_user</t>
+  </si>
+  <si>
+    <t>check_user_access_to_action</t>
+  </si>
+  <si>
+    <t>user_logout</t>
+  </si>
+  <si>
+    <t>set_user_profile</t>
+  </si>
+  <si>
+    <t>در صورت وجود پروفایل باز هم در جدول اضافه می‌شود</t>
+  </si>
+  <si>
+    <t>اکشن تکراری درج میشود</t>
+  </si>
+  <si>
+    <t>درست است (اجازه درج اکشن تکراری را میدهد)</t>
+  </si>
+  <si>
+    <t>delete_user_role</t>
+  </si>
+  <si>
+    <t>درست است(امکان درج نام گروه تکراری وجود دارد)</t>
+  </si>
+  <si>
+    <t>get_group_by_id</t>
+  </si>
+  <si>
+    <t>get_group_by_name</t>
+  </si>
+  <si>
+    <t>درست است (امکان درج گروه تکراری وجود دارد)</t>
+  </si>
+  <si>
+    <t>درست است(امکان درج استان تکراری وجود دارد)</t>
+  </si>
+  <si>
+    <t>درست است (امکان درج شهر تکراری وجود دارد)</t>
+  </si>
+  <si>
+    <t>درست است (امکان درج منطقه تکراری وجود دارد)</t>
+  </si>
+  <si>
+    <t>check_id</t>
+  </si>
+  <si>
+    <t>search_user</t>
+  </si>
+  <si>
+    <t>پیاده‌سازی نشده</t>
+  </si>
+  <si>
+    <t>edit_pass_user</t>
+  </si>
+  <si>
+    <t>درست است (امکان درج نقش تکراری وجود دارد)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +281,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +389,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,17 +673,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="141.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
@@ -541,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D60" si="0">IF(A2="x", 1,0)</f>
+        <f t="shared" ref="D2:D56" si="0">IF(A2="x", 1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -703,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
@@ -718,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
@@ -756,57 +924,57 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,258 +993,621 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="D57" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D57:D119" si="1">IF(A57="x", 1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D59" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D60" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D61" s="6">
-        <f t="shared" ref="D61:D124" si="1">IF(A61="x", 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="D62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="D63" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D64" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1414,37 +1945,37 @@
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D120:D180" si="2">IF(A120="x", 1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="6">
-        <f t="shared" ref="D125:D185" si="2">IF(A125="x", 1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1774,36 +2305,6 @@
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D181" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D182" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D184" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D185" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
